--- a/To_order.xlsx
+++ b/To_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,25 +507,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1100472</v>
+        <v>1133835</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Goodlife Muthaiga</t>
+          <t>Goodlife Rosslyn Riviera</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ARICEPT 10MG TABS 28S</t>
+          <t>BIO BALANCE SUPER SERUM RETINOL 30ML</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LABOREX KENYA LTD</t>
+          <t>LINTONS PLACE LIMITED</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C0000118</t>
+          <t>C0000121</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -572,25 +572,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1114924</v>
+        <v>1135049</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Goodlife Muthaiga</t>
+          <t>Goodlife Rosslyn Riviera</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EBIXA 10MG TABS</t>
+          <t>UNCOVER GREEN TEA  REVITALISING CLEANSER - 120ML</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RIPPLE PHARMACEUTICALS LTD</t>
+          <t>UNCOVER SKINCARE LTD</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C0000184</t>
+          <t>C0000712</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -630,6 +630,136 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
+        <is>
+          <t>20240319</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1135051</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Goodlife Rosslyn Riviera</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>UNCOVER ARGAN HYDRATING MOISTURISER - 100ML</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>UNCOVER SKINCARE LTD</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C0000712</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>dDocument_Items</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SPECIAL ORDER</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>20240319</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>20240319</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1134908</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Goodlife Rosslyn Riviera</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>UNCOVER I AM RADIANT BAOBAB GLOW-C SERUM 30ML</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>UNCOVER SKINCARE LTD</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C0000712</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>dDocument_Items</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SPECIAL ORDER</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>20240319</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>20240319</t>
         </is>

--- a/To_order.xlsx
+++ b/To_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,22 +510,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1133835</v>
+        <v>1117236</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Goodlife Rosslyn Riviera</t>
+          <t>Goodlife Mombasa Ambalal</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BIO BALANCE SUPER SERUM RETINOL 30ML</t>
+          <t>PROGYNOVA 2MG TABS 20S</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LINTONS PLACE LIMITED</t>
+          <t>GOODLIFE  PHARMACY-WAREHOUSE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C0000121</t>
+          <t>C0000349</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -561,207 +561,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>20240319</t>
+          <t>20240424</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>20240319</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1135049</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Goodlife Rosslyn Riviera</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>UNCOVER GREEN TEA  REVITALISING CLEANSER - 120ML</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>UNCOVER SKINCARE LTD</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1135051</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Goodlife Rosslyn Riviera</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>UNCOVER ARGAN HYDRATING MOISTURISER - 100ML</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>UNCOVER SKINCARE LTD</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1134908</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Goodlife Rosslyn Riviera</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>UNCOVER I AM RADIANT BAOBAB GLOW-C SERUM 30ML</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>UNCOVER SKINCARE LTD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C0000712</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>dDocument_Items</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>SPECIAL ORDER</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>20240319</t>
+          <t>20240424</t>
         </is>
       </c>
     </row>
